--- a/ocms/src/test/resources/TestData/OCMSuccessfulRegistrationDeregistrationReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMSuccessfulRegistrationDeregistrationReport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6082647-2622-4D3D-B2DF-2C0509C8DE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488C905-B703-410D-BABA-B0AF38DE89DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="42">
   <si>
     <t>Report Channel</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Social Media</t>
-  </si>
-  <si>
-    <t>OCM Successful Registration/Deregistration Report</t>
   </si>
   <si>
     <t>01-06-2020 00:00:00</t>
@@ -497,21 +494,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="56.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,27 +525,27 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -561,25 +558,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,178 +605,178 @@
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -790,18 +787,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,24 +811,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -845,20 +841,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,27 +871,27 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -908,21 +904,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,33 +935,33 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -978,21 +974,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="36.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="36.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,40 +1008,41 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1053,27 +1050,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I21:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,72 +1105,72 @@
         <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
@@ -1189,21 +1186,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,24 +1220,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
